--- a/BigErrorQA.xlsx
+++ b/BigErrorQA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\333\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9A8069-98C0-4917-ACE6-2EDECC62D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{252D238D-CA86-4BC0-A76F-34136A60598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-end" sheetId="2" r:id="rId1"/>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:O130"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11:O12"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +5150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
